--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Unicommerce Esolutions Ltd/Pruned_Excel/Final_Parameters/Unicommerce Esolutions Ltd_Cleaned_Data_Updated.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Unicommerce Esolutions Ltd/Pruned_Excel/Final_Parameters/Unicommerce Esolutions Ltd_Cleaned_Data_Updated.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="91">
   <si>
     <t>Balance Sheet of Unicommerce Esolutions(in Rs. Cr.)</t>
   </si>
@@ -192,6 +192,9 @@
   </si>
   <si>
     <t>P/l before exceptional items &amp; tax</t>
+  </si>
+  <si>
+    <t>Exceptional items</t>
   </si>
   <si>
     <t>P/l before tax</t>
@@ -1512,13 +1515,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>49</v>
       </c>
@@ -1579,10 +1582,13 @@
       <c r="T1" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="U1" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B2">
         <v>25.96</v>
@@ -1614,31 +1620,31 @@
       <c r="K2">
         <v>5.2</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>5.2</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>1.37</v>
-      </c>
-      <c r="N2">
-        <v>3.83</v>
       </c>
       <c r="O2">
         <v>3.83</v>
       </c>
       <c r="P2">
+        <v>3.83</v>
+      </c>
+      <c r="Q2">
         <v>5.89</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>0.65</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>0.65</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B3">
         <v>25.93</v>
@@ -1670,37 +1676,37 @@
       <c r="K3">
         <v>4.88</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>4.88</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>1.19</v>
-      </c>
-      <c r="N3">
-        <v>3.69</v>
       </c>
       <c r="O3">
         <v>3.69</v>
       </c>
       <c r="P3">
+        <v>3.69</v>
+      </c>
+      <c r="Q3">
         <v>0.02</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>0.37</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>0.33</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>0.37</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>0.33</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B4">
         <v>29.31</v>
@@ -1732,37 +1738,37 @@
       <c r="K4">
         <v>6.02</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>6.02</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>1.54</v>
-      </c>
-      <c r="N4">
-        <v>4.47</v>
       </c>
       <c r="O4">
         <v>4.47</v>
       </c>
       <c r="P4">
+        <v>4.47</v>
+      </c>
+      <c r="Q4">
         <v>10.24</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>0.44</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>0.4</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>0.44</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>0.4</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B5">
         <v>27.47</v>
@@ -1794,37 +1800,37 @@
       <c r="K5">
         <v>4.74</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>4.74</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>1.23</v>
-      </c>
-      <c r="N5">
-        <v>3.51</v>
       </c>
       <c r="O5">
         <v>3.51</v>
       </c>
       <c r="P5">
+        <v>3.51</v>
+      </c>
+      <c r="Q5">
         <v>5.89</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>0.35</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>0.31</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>0.35</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>0.31</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B6">
         <v>26.53</v>
@@ -1856,31 +1862,31 @@
       <c r="K6">
         <v>3.8</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>3.8</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>0.92</v>
-      </c>
-      <c r="N6">
-        <v>2.88</v>
       </c>
       <c r="O6">
         <v>2.88</v>
       </c>
       <c r="P6">
+        <v>2.88</v>
+      </c>
+      <c r="Q6">
         <v>5.89</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>0.28</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>0.26</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>0.28</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>0.26</v>
       </c>
     </row>
@@ -1899,58 +1905,58 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:18">
